--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H2">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I2">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J2">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N2">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q2">
-        <v>829.207776930323</v>
+        <v>2812.082225097679</v>
       </c>
       <c r="R2">
-        <v>7462.869992372907</v>
+        <v>25308.74002587911</v>
       </c>
       <c r="S2">
-        <v>0.8690795858302967</v>
+        <v>0.9160343384193775</v>
       </c>
       <c r="T2">
-        <v>0.8690795858302965</v>
+        <v>0.9160343384193774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H3">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I3">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J3">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q3">
-        <v>39.41388903474555</v>
+        <v>65.61260890552555</v>
       </c>
       <c r="R3">
-        <v>354.72500131271</v>
+        <v>590.51348014973</v>
       </c>
       <c r="S3">
-        <v>0.04130907513323554</v>
+        <v>0.0213732736028566</v>
       </c>
       <c r="T3">
-        <v>0.04130907513323555</v>
+        <v>0.02137327360285659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H4">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I4">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J4">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N4">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q4">
-        <v>40.98782609401979</v>
+        <v>92.09807411300667</v>
       </c>
       <c r="R4">
-        <v>368.890434846178</v>
+        <v>828.88266701706</v>
       </c>
       <c r="S4">
-        <v>0.04295869372781844</v>
+        <v>0.03000090027128436</v>
       </c>
       <c r="T4">
-        <v>0.04295869372781843</v>
+        <v>0.03000090027128435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.62133033333333</v>
+        <v>45.98144433333334</v>
       </c>
       <c r="H5">
-        <v>82.863991</v>
+        <v>137.944333</v>
       </c>
       <c r="I5">
-        <v>0.984261144236963</v>
+        <v>0.9841234286873372</v>
       </c>
       <c r="J5">
-        <v>0.9842611442369629</v>
+        <v>0.984123428687337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N5">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O5">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P5">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q5">
-        <v>29.495520460441</v>
+        <v>51.31218046493345</v>
       </c>
       <c r="R5">
-        <v>265.459684143969</v>
+        <v>461.8096241844011</v>
       </c>
       <c r="S5">
-        <v>0.03091378954561239</v>
+        <v>0.01671491639381858</v>
       </c>
       <c r="T5">
-        <v>0.03091378954561238</v>
+        <v>0.01671491639381858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.314602</v>
       </c>
       <c r="I6">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J6">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N6">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q6">
-        <v>3.148175967506</v>
+        <v>6.413360178994666</v>
       </c>
       <c r="R6">
-        <v>28.333583707554</v>
+        <v>57.72024161095199</v>
       </c>
       <c r="S6">
-        <v>0.003299553552294904</v>
+        <v>0.002089148779569024</v>
       </c>
       <c r="T6">
-        <v>0.003299553552294904</v>
+        <v>0.002089148779569023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.314602</v>
       </c>
       <c r="I7">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J7">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q7">
         <v>0.1496390430688889</v>
@@ -883,10 +883,10 @@
         <v>1.34675138762</v>
       </c>
       <c r="S7">
-        <v>0.0001568343196873798</v>
+        <v>4.874484131222622E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001568343196873799</v>
+        <v>4.87448413122262E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.314602</v>
       </c>
       <c r="I8">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J8">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N8">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q8">
-        <v>0.1556146633684445</v>
+        <v>0.2100429766266667</v>
       </c>
       <c r="R8">
-        <v>1.400531970316</v>
+        <v>1.89038678964</v>
       </c>
       <c r="S8">
-        <v>0.0001630972730260981</v>
+        <v>6.842139159965783E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001630972730260981</v>
+        <v>6.84213915996578E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.314602</v>
       </c>
       <c r="I9">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="J9">
-        <v>0.003736852651705335</v>
+        <v>0.002244435796517234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N9">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O9">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P9">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q9">
-        <v>0.111982896502</v>
+        <v>0.1170248479771111</v>
       </c>
       <c r="R9">
-        <v>1.007846068518</v>
+        <v>1.053223631794</v>
       </c>
       <c r="S9">
-        <v>0.0001173675066969529</v>
+        <v>3.812078403632655E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001173675066969529</v>
+        <v>3.812078403632653E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H10">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I10">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J10">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N10">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q10">
-        <v>9.457606859388999</v>
+        <v>33.510123931804</v>
       </c>
       <c r="R10">
-        <v>85.118461734501</v>
+        <v>301.591115386236</v>
       </c>
       <c r="S10">
-        <v>0.009912368505190982</v>
+        <v>0.0109159056347135</v>
       </c>
       <c r="T10">
-        <v>0.009912368505190982</v>
+        <v>0.0109159056347135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H11">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I11">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J11">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q11">
-        <v>0.4495387979477776</v>
+        <v>0.7818713963233332</v>
       </c>
       <c r="R11">
-        <v>4.04584918153</v>
+        <v>7.036842566909999</v>
       </c>
       <c r="S11">
-        <v>0.0004711545202595617</v>
+        <v>0.0002546942051935204</v>
       </c>
       <c r="T11">
-        <v>0.0004711545202595617</v>
+        <v>0.0002546942051935203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H12">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I12">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J12">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N12">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q12">
-        <v>0.4674904842948889</v>
+        <v>1.09748493478</v>
       </c>
       <c r="R12">
-        <v>4.207414358654</v>
+        <v>9.877364413019999</v>
       </c>
       <c r="S12">
-        <v>0.0004899693994364772</v>
+        <v>0.0003575051530086431</v>
       </c>
       <c r="T12">
-        <v>0.0004899693994364772</v>
+        <v>0.000357505153008643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3150376666666666</v>
+        <v>0.547937</v>
       </c>
       <c r="H13">
-        <v>0.9451129999999999</v>
+        <v>1.643811</v>
       </c>
       <c r="I13">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="J13">
-        <v>0.01122608254305816</v>
+        <v>0.01172728797372169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N13">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O13">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P13">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q13">
-        <v>0.336413917463</v>
+        <v>0.6114606149296667</v>
       </c>
       <c r="R13">
-        <v>3.027725257167</v>
+        <v>5.503145534367</v>
       </c>
       <c r="S13">
-        <v>0.0003525901181711409</v>
+        <v>0.0001991829808060279</v>
       </c>
       <c r="T13">
-        <v>0.0003525901181711408</v>
+        <v>0.0001991829808060278</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H14">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I14">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J14">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N14">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q14">
-        <v>0.6536876653720001</v>
+        <v>5.443004159261333</v>
       </c>
       <c r="R14">
-        <v>5.883188988348</v>
+        <v>48.98703743335199</v>
       </c>
       <c r="S14">
-        <v>0.0006851197266708806</v>
+        <v>0.001773055805247546</v>
       </c>
       <c r="T14">
-        <v>0.0006851197266708806</v>
+        <v>0.001773055805247546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H15">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I15">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J15">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.28081</v>
       </c>
       <c r="O15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q15">
-        <v>0.03107107027111111</v>
+        <v>0.1269983146244444</v>
       </c>
       <c r="R15">
-        <v>0.27963963244</v>
+        <v>1.14298483162</v>
       </c>
       <c r="S15">
-        <v>3.256509843948355E-05</v>
+        <v>4.136963566680131E-05</v>
       </c>
       <c r="T15">
-        <v>3.256509843948355E-05</v>
+        <v>4.13696356668013E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H16">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I16">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J16">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N16">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q16">
-        <v>0.03231184884355556</v>
+        <v>0.1782629952933333</v>
       </c>
       <c r="R16">
-        <v>0.2908066395920001</v>
+        <v>1.60436695764</v>
       </c>
       <c r="S16">
-        <v>3.386553888137022E-05</v>
+        <v>5.806907902649009E-05</v>
       </c>
       <c r="T16">
-        <v>3.386553888137022E-05</v>
+        <v>5.806907902649008E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02177466666666667</v>
+        <v>0.08900066666666666</v>
       </c>
       <c r="H17">
-        <v>0.06532400000000001</v>
+        <v>0.267002</v>
       </c>
       <c r="I17">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="J17">
-        <v>0.0007759205682735626</v>
+        <v>0.001904847542424061</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N17">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O17">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P17">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q17">
-        <v>0.023252143124</v>
+        <v>0.09931872162155557</v>
       </c>
       <c r="R17">
-        <v>0.209269288116</v>
+        <v>0.893868494594</v>
       </c>
       <c r="S17">
-        <v>2.437020428182833E-05</v>
+        <v>3.235302248322407E-05</v>
       </c>
       <c r="T17">
-        <v>2.437020428182832E-05</v>
+        <v>3.235302248322406E-05</v>
       </c>
     </row>
   </sheetData>
